--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.1441027568695</v>
+        <v>16.76012233333333</v>
       </c>
       <c r="H2">
-        <v>15.1441027568695</v>
+        <v>50.280367</v>
       </c>
       <c r="I2">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="J2">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.555617529878</v>
+        <v>16.49411233333333</v>
       </c>
       <c r="N2">
-        <v>14.555617529878</v>
+        <v>49.482337</v>
       </c>
       <c r="O2">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732397</v>
       </c>
       <c r="P2">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732396</v>
       </c>
       <c r="Q2">
-        <v>220.4317675621635</v>
+        <v>276.4433404864088</v>
       </c>
       <c r="R2">
-        <v>220.4317675621635</v>
+        <v>2487.990064377679</v>
       </c>
       <c r="S2">
-        <v>0.6968190624086734</v>
+        <v>0.6724881518000611</v>
       </c>
       <c r="T2">
-        <v>0.6968190624086734</v>
+        <v>0.6724881518000611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.1441027568695</v>
+        <v>16.76012233333333</v>
       </c>
       <c r="H3">
-        <v>15.1441027568695</v>
+        <v>50.280367</v>
       </c>
       <c r="I3">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="J3">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.39241183797331</v>
+        <v>3.462491666666667</v>
       </c>
       <c r="N3">
-        <v>3.39241183797331</v>
+        <v>10.387475</v>
       </c>
       <c r="O3">
-        <v>0.1736757695696011</v>
+        <v>0.156503115206714</v>
       </c>
       <c r="P3">
-        <v>0.1736757695696011</v>
+        <v>0.1565031152067139</v>
       </c>
       <c r="Q3">
-        <v>51.37503346788833</v>
+        <v>58.03178391148055</v>
       </c>
       <c r="R3">
-        <v>51.37503346788833</v>
+        <v>522.286055203325</v>
       </c>
       <c r="S3">
-        <v>0.1624044621527273</v>
+        <v>0.1411706537752924</v>
       </c>
       <c r="T3">
-        <v>0.1624044621527273</v>
+        <v>0.1411706537752923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.1441027568695</v>
+        <v>16.76012233333333</v>
       </c>
       <c r="H4">
-        <v>15.1441027568695</v>
+        <v>50.280367</v>
       </c>
       <c r="I4">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="J4">
-        <v>0.9351014396262296</v>
+        <v>0.9020309505585877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.58498808403791</v>
+        <v>2.167503</v>
       </c>
       <c r="N4">
-        <v>1.58498808403791</v>
+        <v>6.502509</v>
       </c>
       <c r="O4">
-        <v>0.08114404689095339</v>
+        <v>0.09797019152004643</v>
       </c>
       <c r="P4">
-        <v>0.08114404689095339</v>
+        <v>0.09797019152004643</v>
       </c>
       <c r="Q4">
-        <v>24.00322241308382</v>
+        <v>36.327615437867</v>
       </c>
       <c r="R4">
-        <v>24.00322241308382</v>
+        <v>326.948538940803</v>
       </c>
       <c r="S4">
-        <v>0.0758779150648288</v>
+        <v>0.08837214498323438</v>
       </c>
       <c r="T4">
-        <v>0.0758779150648288</v>
+        <v>0.08837214498323438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -720,49 +720,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.05104155060025</v>
+        <v>0.287584</v>
       </c>
       <c r="H5">
-        <v>1.05104155060025</v>
+        <v>0.862752</v>
       </c>
       <c r="I5">
-        <v>0.06489856037377043</v>
+        <v>0.01547779089711741</v>
       </c>
       <c r="J5">
-        <v>0.06489856037377043</v>
+        <v>0.01547779089711741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.555617529878</v>
+        <v>16.49411233333333</v>
       </c>
       <c r="N5">
-        <v>14.555617529878</v>
+        <v>49.482337</v>
       </c>
       <c r="O5">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732397</v>
       </c>
       <c r="P5">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732396</v>
       </c>
       <c r="Q5">
-        <v>15.29855881854715</v>
+        <v>4.743442801269333</v>
       </c>
       <c r="R5">
-        <v>15.29855881854715</v>
+        <v>42.690985211424</v>
       </c>
       <c r="S5">
-        <v>0.04836112113077203</v>
+        <v>0.0115391062667026</v>
       </c>
       <c r="T5">
-        <v>0.04836112113077203</v>
+        <v>0.01153910626670259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.05104155060025</v>
+        <v>0.287584</v>
       </c>
       <c r="H6">
-        <v>1.05104155060025</v>
+        <v>0.862752</v>
       </c>
       <c r="I6">
-        <v>0.06489856037377043</v>
+        <v>0.01547779089711741</v>
       </c>
       <c r="J6">
-        <v>0.06489856037377043</v>
+        <v>0.01547779089711741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39241183797331</v>
+        <v>3.462491666666667</v>
       </c>
       <c r="N6">
-        <v>3.39241183797331</v>
+        <v>10.387475</v>
       </c>
       <c r="O6">
-        <v>0.1736757695696011</v>
+        <v>0.156503115206714</v>
       </c>
       <c r="P6">
-        <v>0.1736757695696011</v>
+        <v>0.1565031152067139</v>
       </c>
       <c r="Q6">
-        <v>3.565565798458112</v>
+        <v>0.9957572034666667</v>
       </c>
       <c r="R6">
-        <v>3.565565798458112</v>
+        <v>8.9618148312</v>
       </c>
       <c r="S6">
-        <v>0.0112713074168738</v>
+        <v>0.002422322491916996</v>
       </c>
       <c r="T6">
-        <v>0.0112713074168738</v>
+        <v>0.002422322491916995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.287584</v>
+      </c>
+      <c r="H7">
+        <v>0.862752</v>
+      </c>
+      <c r="I7">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="J7">
+        <v>0.01547779089711741</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.167503</v>
+      </c>
+      <c r="N7">
+        <v>6.502509</v>
+      </c>
+      <c r="O7">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="P7">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="Q7">
+        <v>0.623339182752</v>
+      </c>
+      <c r="R7">
+        <v>5.610052644767999</v>
+      </c>
+      <c r="S7">
+        <v>0.001516362138497824</v>
+      </c>
+      <c r="T7">
+        <v>0.001516362138497824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.433106333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.299319</v>
+      </c>
+      <c r="I8">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="J8">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.49411233333333</v>
+      </c>
+      <c r="N8">
+        <v>49.482337</v>
+      </c>
+      <c r="O8">
+        <v>0.7455266932732397</v>
+      </c>
+      <c r="P8">
+        <v>0.7455266932732396</v>
+      </c>
+      <c r="Q8">
+        <v>23.63781684761144</v>
+      </c>
+      <c r="R8">
+        <v>212.740351628503</v>
+      </c>
+      <c r="S8">
+        <v>0.057502386335185</v>
+      </c>
+      <c r="T8">
+        <v>0.05750238633518499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.433106333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.299319</v>
+      </c>
+      <c r="I9">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="J9">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.462491666666667</v>
+      </c>
+      <c r="N9">
+        <v>10.387475</v>
+      </c>
+      <c r="O9">
+        <v>0.156503115206714</v>
+      </c>
+      <c r="P9">
+        <v>0.1565031152067139</v>
+      </c>
+      <c r="Q9">
+        <v>4.962118736613888</v>
+      </c>
+      <c r="R9">
+        <v>44.659068629525</v>
+      </c>
+      <c r="S9">
+        <v>0.01207106690407682</v>
+      </c>
+      <c r="T9">
+        <v>0.01207106690407682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.433106333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.299319</v>
+      </c>
+      <c r="I10">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="J10">
+        <v>0.07712988261053458</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.167503</v>
+      </c>
+      <c r="N10">
+        <v>6.502509</v>
+      </c>
+      <c r="O10">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="P10">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="Q10">
+        <v>3.106262276818999</v>
+      </c>
+      <c r="R10">
+        <v>27.956360491371</v>
+      </c>
+      <c r="S10">
+        <v>0.007556429371272772</v>
+      </c>
+      <c r="T10">
+        <v>0.007556429371272772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.05104155060025</v>
-      </c>
-      <c r="H7">
-        <v>1.05104155060025</v>
-      </c>
-      <c r="I7">
-        <v>0.06489856037377043</v>
-      </c>
-      <c r="J7">
-        <v>0.06489856037377043</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.58498808403791</v>
-      </c>
-      <c r="N7">
-        <v>1.58498808403791</v>
-      </c>
-      <c r="O7">
-        <v>0.08114404689095339</v>
-      </c>
-      <c r="P7">
-        <v>0.08114404689095339</v>
-      </c>
-      <c r="Q7">
-        <v>1.665888333530124</v>
-      </c>
-      <c r="R7">
-        <v>1.665888333530124</v>
-      </c>
-      <c r="S7">
-        <v>0.005266131826124597</v>
-      </c>
-      <c r="T7">
-        <v>0.005266131826124597</v>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09961666666666665</v>
+      </c>
+      <c r="H11">
+        <v>0.2988499999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="J11">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.49411233333333</v>
+      </c>
+      <c r="N11">
+        <v>49.482337</v>
+      </c>
+      <c r="O11">
+        <v>0.7455266932732397</v>
+      </c>
+      <c r="P11">
+        <v>0.7455266932732396</v>
+      </c>
+      <c r="Q11">
+        <v>1.643088490272222</v>
+      </c>
+      <c r="R11">
+        <v>14.78779641245</v>
+      </c>
+      <c r="S11">
+        <v>0.00399704887129102</v>
+      </c>
+      <c r="T11">
+        <v>0.003997048871291019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09961666666666665</v>
+      </c>
+      <c r="H12">
+        <v>0.2988499999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="J12">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.462491666666667</v>
+      </c>
+      <c r="N12">
+        <v>10.387475</v>
+      </c>
+      <c r="O12">
+        <v>0.156503115206714</v>
+      </c>
+      <c r="P12">
+        <v>0.1565031152067139</v>
+      </c>
+      <c r="Q12">
+        <v>0.3449218781944444</v>
+      </c>
+      <c r="R12">
+        <v>3.104296903749999</v>
+      </c>
+      <c r="S12">
+        <v>0.0008390720354277867</v>
+      </c>
+      <c r="T12">
+        <v>0.0008390720354277866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09961666666666665</v>
+      </c>
+      <c r="H13">
+        <v>0.2988499999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="J13">
+        <v>0.005361375933760267</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.167503</v>
+      </c>
+      <c r="N13">
+        <v>6.502509</v>
+      </c>
+      <c r="O13">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="P13">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="Q13">
+        <v>0.21591942385</v>
+      </c>
+      <c r="R13">
+        <v>1.94327481465</v>
+      </c>
+      <c r="S13">
+        <v>0.0005252550270414612</v>
+      </c>
+      <c r="T13">
+        <v>0.0005252550270414612</v>
       </c>
     </row>
   </sheetData>
